--- a/inst/extdata/wfa_dict.xlsx
+++ b/inst/extdata/wfa_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>old</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>facility</t>
+  </si>
+  <si>
+    <t>page1-children_seen</t>
+  </si>
+  <si>
+    <t>nb_children_seen</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,6 +566,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/inst/extdata/wfa_dict.xlsx
+++ b/inst/extdata/wfa_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>old</t>
   </si>
@@ -101,7 +101,61 @@
     <t>page1-children_seen</t>
   </si>
   <si>
-    <t>nb_children_seen</t>
+    <t>page1-date_Monday</t>
+  </si>
+  <si>
+    <t>date_week</t>
+  </si>
+  <si>
+    <t>page1-monday_seen</t>
+  </si>
+  <si>
+    <t>page1-tuesday_seen</t>
+  </si>
+  <si>
+    <t>page1-wednesday_seen</t>
+  </si>
+  <si>
+    <t>page1-thursday_seen</t>
+  </si>
+  <si>
+    <t>page1-friday_seen</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_week</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_mon</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_tue</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_wed</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_thu</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_fri</t>
+  </si>
+  <si>
+    <t>page1-pox_present</t>
+  </si>
+  <si>
+    <t>page1-probe_present</t>
+  </si>
+  <si>
+    <t>page1-pox_func</t>
+  </si>
+  <si>
+    <t>probe_avail</t>
+  </si>
+  <si>
+    <t>pox_avail</t>
+  </si>
+  <si>
+    <t>pox_functional</t>
   </si>
 </sst>
 </file>
@@ -449,16 +503,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -504,74 +558,146 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/wfa_dict.xlsx
+++ b/inst/extdata/wfa_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>old</t>
   </si>
@@ -156,6 +156,54 @@
   </si>
   <si>
     <t>pox_functional</t>
+  </si>
+  <si>
+    <t>odk_ref</t>
+  </si>
+  <si>
+    <t>date_Monday</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>pox_use</t>
+  </si>
+  <si>
+    <t>pox_present</t>
+  </si>
+  <si>
+    <t>probe_present</t>
+  </si>
+  <si>
+    <t>pox_func</t>
+  </si>
+  <si>
+    <t>new_hcp</t>
+  </si>
+  <si>
+    <t>hcp_leave</t>
+  </si>
+  <si>
+    <t>drug_stock_out</t>
+  </si>
+  <si>
+    <t>children_seen</t>
+  </si>
+  <si>
+    <t>monday_seen</t>
+  </si>
+  <si>
+    <t>tuesday_seen</t>
+  </si>
+  <si>
+    <t>wednesday_seen</t>
+  </si>
+  <si>
+    <t>thursday_seen</t>
+  </si>
+  <si>
+    <t>friday_seen</t>
   </si>
 </sst>
 </file>
@@ -506,198 +554,267 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/wfa_dict.xlsx
+++ b/inst/extdata/wfa_dict.xlsx
@@ -104,106 +104,106 @@
     <t>page1-date_Monday</t>
   </si>
   <si>
+    <t>page1-monday_seen</t>
+  </si>
+  <si>
+    <t>page1-tuesday_seen</t>
+  </si>
+  <si>
+    <t>page1-wednesday_seen</t>
+  </si>
+  <si>
+    <t>page1-thursday_seen</t>
+  </si>
+  <si>
+    <t>page1-friday_seen</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_week</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_mon</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_tue</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_wed</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_thu</t>
+  </si>
+  <si>
+    <t>u5_attendance_last_fri</t>
+  </si>
+  <si>
+    <t>page1-pox_present</t>
+  </si>
+  <si>
+    <t>page1-probe_present</t>
+  </si>
+  <si>
+    <t>page1-pox_func</t>
+  </si>
+  <si>
+    <t>probe_avail</t>
+  </si>
+  <si>
+    <t>pox_avail</t>
+  </si>
+  <si>
+    <t>pox_functional</t>
+  </si>
+  <si>
+    <t>odk_ref</t>
+  </si>
+  <si>
+    <t>date_Monday</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>pox_use</t>
+  </si>
+  <si>
+    <t>pox_present</t>
+  </si>
+  <si>
+    <t>probe_present</t>
+  </si>
+  <si>
+    <t>pox_func</t>
+  </si>
+  <si>
+    <t>new_hcp</t>
+  </si>
+  <si>
+    <t>hcp_leave</t>
+  </si>
+  <si>
+    <t>drug_stock_out</t>
+  </si>
+  <si>
+    <t>children_seen</t>
+  </si>
+  <si>
+    <t>monday_seen</t>
+  </si>
+  <si>
+    <t>tuesday_seen</t>
+  </si>
+  <si>
+    <t>wednesday_seen</t>
+  </si>
+  <si>
+    <t>thursday_seen</t>
+  </si>
+  <si>
+    <t>friday_seen</t>
+  </si>
+  <si>
     <t>date_week</t>
-  </si>
-  <si>
-    <t>page1-monday_seen</t>
-  </si>
-  <si>
-    <t>page1-tuesday_seen</t>
-  </si>
-  <si>
-    <t>page1-wednesday_seen</t>
-  </si>
-  <si>
-    <t>page1-thursday_seen</t>
-  </si>
-  <si>
-    <t>page1-friday_seen</t>
-  </si>
-  <si>
-    <t>u5_attendance_last_week</t>
-  </si>
-  <si>
-    <t>u5_attendance_last_mon</t>
-  </si>
-  <si>
-    <t>u5_attendance_last_tue</t>
-  </si>
-  <si>
-    <t>u5_attendance_last_wed</t>
-  </si>
-  <si>
-    <t>u5_attendance_last_thu</t>
-  </si>
-  <si>
-    <t>u5_attendance_last_fri</t>
-  </si>
-  <si>
-    <t>page1-pox_present</t>
-  </si>
-  <si>
-    <t>page1-probe_present</t>
-  </si>
-  <si>
-    <t>page1-pox_func</t>
-  </si>
-  <si>
-    <t>probe_avail</t>
-  </si>
-  <si>
-    <t>pox_avail</t>
-  </si>
-  <si>
-    <t>pox_functional</t>
-  </si>
-  <si>
-    <t>odk_ref</t>
-  </si>
-  <si>
-    <t>date_Monday</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>pox_use</t>
-  </si>
-  <si>
-    <t>pox_present</t>
-  </si>
-  <si>
-    <t>probe_present</t>
-  </si>
-  <si>
-    <t>pox_func</t>
-  </si>
-  <si>
-    <t>new_hcp</t>
-  </si>
-  <si>
-    <t>hcp_leave</t>
-  </si>
-  <si>
-    <t>drug_stock_out</t>
-  </si>
-  <si>
-    <t>children_seen</t>
-  </si>
-  <si>
-    <t>monday_seen</t>
-  </si>
-  <si>
-    <t>tuesday_seen</t>
-  </si>
-  <si>
-    <t>wednesday_seen</t>
-  </si>
-  <si>
-    <t>thursday_seen</t>
-  </si>
-  <si>
-    <t>friday_seen</t>
   </si>
 </sst>
 </file>
@@ -554,17 +554,17 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -619,18 +619,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -652,7 +652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -660,10 +660,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -682,43 +682,43 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -726,10 +726,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -737,10 +737,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -748,73 +748,73 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/wfa_dict.xlsx
+++ b/inst/extdata/wfa_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>old</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>date_week</t>
+  </si>
+  <si>
+    <t>FormatVersion</t>
+  </si>
+  <si>
+    <t>format_version</t>
   </si>
 </sst>
 </file>
@@ -551,20 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,7 +581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -586,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -597,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -608,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -619,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -630,7 +636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -641,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -652,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -663,7 +669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -674,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -685,7 +691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -696,7 +702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -707,7 +713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -718,7 +724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -729,7 +735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -740,7 +746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -751,7 +757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -762,7 +768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -773,7 +779,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -784,7 +790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -795,7 +801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -806,7 +812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -815,6 +821,17 @@
       </c>
       <c r="C23" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/wfa_dict.xlsx
+++ b/inst/extdata/wfa_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>old</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>format_version</t>
+  </si>
+  <si>
+    <t>is_india</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>character</t>
   </si>
 </sst>
 </file>
@@ -557,20 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -580,8 +589,14 @@
       <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -591,8 +606,14 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -602,8 +623,14 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -613,8 +640,14 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -624,8 +657,14 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -635,8 +674,14 @@
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -646,8 +691,14 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -657,8 +708,14 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -668,8 +725,14 @@
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -679,8 +742,14 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -690,8 +759,14 @@
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -701,8 +776,14 @@
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -712,8 +793,14 @@
       <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -723,8 +810,14 @@
       <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -734,8 +827,14 @@
       <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -745,8 +844,14 @@
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -756,8 +861,14 @@
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -767,8 +878,14 @@
       <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -778,8 +895,14 @@
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -789,8 +912,14 @@
       <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -800,8 +929,14 @@
       <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -811,8 +946,14 @@
       <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -822,8 +963,14 @@
       <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -832,6 +979,12 @@
       </c>
       <c r="C24" s="5" t="s">
         <v>60</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/wfa_dict.xlsx
+++ b/inst/extdata/wfa_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>old</t>
   </si>
@@ -215,10 +215,13 @@
     <t>is_india</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>character</t>
+    <t>is_kenya</t>
+  </si>
+  <si>
+    <t>is_tanzania</t>
+  </si>
+  <si>
+    <t>is_senegal</t>
   </si>
 </sst>
 </file>
@@ -566,20 +569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G2" sqref="G2:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,8 +599,14 @@
       <c r="E1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -609,11 +619,17 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -626,11 +642,17 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -643,11 +665,17 @@
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -660,11 +688,17 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -677,11 +711,17 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -694,11 +734,17 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -711,11 +757,17 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -728,11 +780,17 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -745,11 +803,17 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -762,11 +826,17 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -779,11 +849,17 @@
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -796,11 +872,17 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -813,11 +895,17 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -830,11 +918,17 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -847,11 +941,17 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -864,11 +964,17 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -881,11 +987,17 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -898,11 +1010,17 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -915,11 +1033,17 @@
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -932,11 +1056,17 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -949,11 +1079,17 @@
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -966,11 +1102,17 @@
       <c r="D23" s="5">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -983,8 +1125,14 @@
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
-        <v>64</v>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
